--- a/scripts/output/face.xlsx
+++ b/scripts/output/face.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13440"/>
+    <workbookView windowWidth="30240" windowHeight="13400"/>
   </bookViews>
   <sheets>
     <sheet name="题目" sheetId="5" r:id="rId1"/>
@@ -178,10 +178,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -240,25 +240,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,15 +276,32 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,9 +315,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,14 +338,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,9 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,36 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,7 +398,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +434,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,91 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +500,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,43 +572,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,8 +638,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,26 +655,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,16 +693,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,9 +724,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,152 +737,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,9 +1016,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4942,7 +4939,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45029.8687615741" refreshedBy="loufangjin" recordCount="15">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="45030.875" refreshedBy="loufangjin" recordCount="15">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:L17" sheet="题目"/>
   </cacheSource>
@@ -5393,7 +5390,6 @@
       <items count="12">
         <item x="2"/>
         <item x="9"/>
-        <item x="0"/>
         <item x="8"/>
         <item x="1"/>
         <item x="10"/>
@@ -5402,6 +5398,7 @@
         <item x="7"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5819,15 +5816,15 @@
   <sheetPr/>
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="23.7115384615385" customWidth="1"/>
     <col min="10" max="10" width="10.9230769230769"/>
-    <col min="11" max="13" width="12.9230769230769"/>
+    <col min="11" max="13" width="8"/>
     <col min="14" max="14" width="6"/>
     <col min="15" max="20" width="18.0769230769231"/>
     <col min="21" max="25" width="22.9230769230769"/>
@@ -6558,11 +6555,11 @@
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="41"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
     </row>
     <row r="22" ht="26" spans="1:19">
       <c r="A22" s="37" t="s">
@@ -6588,11 +6585,11 @@
       <c r="M22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
     </row>
     <row r="23" ht="17.6" spans="1:19">
       <c r="A23" s="16" t="s">
@@ -6622,12 +6619,11 @@
       <c r="M23">
         <v>4</v>
       </c>
-      <c r="N23"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
     </row>
     <row r="24" ht="17.6" spans="1:19">
       <c r="A24" s="17" t="s">
@@ -6660,12 +6656,11 @@
       <c r="M24">
         <v>42</v>
       </c>
-      <c r="N24"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
     </row>
     <row r="25" ht="17.6" spans="1:19">
       <c r="A25" s="17" t="s">
@@ -6698,12 +6693,11 @@
       <c r="M25">
         <v>30</v>
       </c>
-      <c r="N25"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
     </row>
     <row r="26" ht="17.6" spans="1:19">
       <c r="A26" s="17" t="s">
@@ -6736,12 +6730,11 @@
       <c r="M26">
         <v>3</v>
       </c>
-      <c r="N26"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
     </row>
     <row r="27" ht="17.6" spans="1:19">
       <c r="A27" s="17" t="s">
@@ -6774,12 +6767,11 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
     </row>
     <row r="28" ht="17.6" spans="1:19">
       <c r="A28" s="17" t="s">
@@ -6807,11 +6799,19 @@
         <f ca="1">GETPIVOTDATA(" 到岗人数",$J$21," ","市场部")/GETPIVOTDATA(" 录用人数",$J$21," ","市场部")</f>
         <v>0.636363636363636</v>
       </c>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
+      <c r="L28" s="44">
+        <f ca="1">GETPIVOTDATA(" 到岗人数",$J$21," ","工程部")/GETPIVOTDATA(" 录用人数",$J$21," ","工程部")</f>
+        <v>0.714285714285714</v>
+      </c>
+      <c r="M28" s="44">
+        <f ca="1">GETPIVOTDATA(" 到岗人数",$J$21," ","财务部")/GETPIVOTDATA(" 录用人数",$J$21," ","财务部")</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
     </row>
     <row r="29" ht="17.6" spans="1:19">
       <c r="A29" s="17" t="s">
@@ -6839,11 +6839,19 @@
         <f ca="1">GETPIVOTDATA(" 录用人数",$J$21," ","市场部")/GETPIVOTDATA(" 应聘人数",$J$21," ","市场部")</f>
         <v>0.0670731707317073</v>
       </c>
+      <c r="L29" s="44">
+        <f ca="1">GETPIVOTDATA(" 录用人数",$J$21," ","工程部")/GETPIVOTDATA(" 应聘人数",$J$21," ","工程部")</f>
+        <v>0.0625</v>
+      </c>
+      <c r="M29" s="44">
+        <f ca="1">GETPIVOTDATA(" 录用人数",$J$21," ","财务部")/GETPIVOTDATA(" 应聘人数",$J$21," ","财务部")</f>
+        <v>0.0714285714285714</v>
+      </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
     </row>
     <row r="30" ht="17.6" spans="1:19">
       <c r="A30" s="17" t="s">
@@ -6867,36 +6875,36 @@
       <c r="O30" s="5"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
     </row>
     <row r="31" spans="15:19">
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
     </row>
     <row r="32" spans="15:19">
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
     </row>
     <row r="33" spans="15:19">
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
     </row>
     <row r="34" spans="15:19">
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
     </row>
     <row r="35" ht="26" spans="1:19">
       <c r="A35" s="37" t="s">
@@ -6909,18 +6917,18 @@
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
     </row>
     <row r="36" spans="15:19">
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
     </row>
     <row r="37" ht="17.6" spans="1:5">
       <c r="A37" s="39" t="s">
@@ -8043,7 +8051,6 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="15"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -19786,7 +19793,6 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20" s="15"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
